--- a/posesiones/1381268.xlsx
+++ b/posesiones/1381268.xlsx
@@ -1958,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>9</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>17</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>10</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>13</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>9</v>
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>23</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>5</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>20</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29">
         <v>6</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R32">
         <v>10</v>
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>19</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>6</v>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>10</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>18</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R45">
         <v>18</v>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>15</v>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>8</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4296,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50">
         <v>25</v>
@@ -4349,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51">
         <v>5</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R57">
         <v>43</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4834,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R61">
         <v>31</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R64">
         <v>10</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R70">
         <v>7</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5710,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R79">
         <v>42</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R81">
         <v>12</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R87">
         <v>11</v>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R89">
         <v>10</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R92">
         <v>20</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R95">
         <v>11</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6604,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R97">
         <v>17</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R106">
         <v>11</v>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R110">
         <v>20</v>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R111">
         <v>15</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7386,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R113">
         <v>20</v>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7489,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R115">
         <v>17</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R118">
         <v>6</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7739,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R120">
         <v>7</v>
@@ -7792,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R121">
         <v>17</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R123">
         <v>17</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R126">
         <v>4</v>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8192,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R129">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8527,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R136">
         <v>3</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8627,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R138">
         <v>1</v>
@@ -8671,10 +8671,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9091,10 +9091,10 @@
         <v>1</v>
       </c>
       <c r="P148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q148">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9241,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R151">
         <v>21</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R153">
         <v>10</v>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9444,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R155">
         <v>20</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9544,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R159">
         <v>17</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9932,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R165">
         <v>22</v>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R167">
         <v>8</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10179,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10323,7 +10323,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R173">
         <v>0</v>
@@ -10376,7 +10376,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R174">
         <v>19</v>
@@ -10429,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R175">
         <v>16</v>
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10720,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R181">
         <v>20</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10867,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R184">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R185">
         <v>9</v>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11158,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R191">
         <v>16</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11311,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R193">
         <v>12</v>
@@ -11361,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11546,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11640,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11737,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R202">
         <v>33</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11837,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R204">
         <v>6</v>
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R205">
         <v>13</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11993,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R207">
         <v>10</v>
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12096,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R209">
         <v>8</v>
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12196,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R211">
         <v>24</v>
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R213">
         <v>15</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12493,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12590,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R219">
         <v>23</v>
@@ -12643,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R220">
         <v>8</v>
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12787,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R223">
         <v>26</v>
@@ -12840,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12890,7 +12890,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R225">
         <v>15</v>
@@ -12940,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12990,7 +12990,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R227">
         <v>14</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13090,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R229">
         <v>6</v>
@@ -13143,7 +13143,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R230">
         <v>14</v>
@@ -13196,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R231">
         <v>12</v>
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R233">
         <v>12</v>
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13399,7 +13399,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R235">
         <v>27</v>
@@ -13452,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R237">
         <v>10</v>
@@ -13552,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13602,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R239">
         <v>5</v>
@@ -13652,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13749,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13799,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R243">
         <v>20</v>
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14037,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14084,7 +14084,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14181,7 +14181,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R251">
         <v>19</v>
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R252">
         <v>9</v>
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14337,7 +14337,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R254">
         <v>14</v>
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14437,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R256">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14537,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R258">
         <v>17</v>
@@ -14590,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14640,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R260">
         <v>5</v>
@@ -14690,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14740,7 +14740,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R262">
         <v>3</v>
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14834,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15069,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15116,7 +15116,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15163,7 +15163,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15210,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R274">
         <v>16</v>
@@ -15357,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15407,7 +15407,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R276">
         <v>5</v>
@@ -15451,10 +15451,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q277">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15642,7 +15642,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15689,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15736,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15783,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15830,7 +15830,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15877,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15965,10 +15965,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q288">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16062,7 +16062,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16109,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16206,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R293">
         <v>9</v>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16303,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16350,7 +16350,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16400,7 +16400,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R297">
         <v>16</v>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16503,7 +16503,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R299">
         <v>16</v>
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16603,7 +16603,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R301">
         <v>20</v>
@@ -16653,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16703,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R303">
         <v>5</v>
@@ -16753,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16803,7 +16803,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R305">
         <v>16</v>
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16953,7 +16953,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R308">
         <v>16</v>
@@ -17006,7 +17006,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R309">
         <v>15</v>
@@ -17059,7 +17059,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17109,7 +17109,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R311">
         <v>11</v>
@@ -17162,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17353,7 +17353,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R316">
         <v>19</v>
@@ -17406,7 +17406,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R317">
         <v>14</v>
@@ -17456,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17506,7 +17506,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R319">
         <v>12</v>
@@ -17559,7 +17559,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17609,7 +17609,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R321">
         <v>14</v>
@@ -17656,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17703,7 +17703,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17750,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17797,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17844,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17894,7 +17894,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R327">
         <v>18</v>
@@ -17944,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17991,7 +17991,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18041,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R330">
         <v>20</v>
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R332">
         <v>16</v>
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18244,7 +18244,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R334">
         <v>20</v>
@@ -18297,7 +18297,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18344,7 +18344,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18441,7 +18441,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R338">
         <v>31</v>
@@ -18491,7 +18491,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18541,7 +18541,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R340">
         <v>8</v>
@@ -18594,7 +18594,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18688,7 +18688,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18735,7 +18735,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18782,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18829,7 +18829,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18876,7 +18876,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18923,7 +18923,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18973,7 +18973,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R349">
         <v>12</v>
@@ -19026,7 +19026,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R350">
         <v>19</v>
@@ -19076,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19126,7 +19126,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R352">
         <v>5</v>
@@ -19179,7 +19179,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19229,7 +19229,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R354">
         <v>4</v>
@@ -19279,7 +19279,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19326,7 +19326,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19420,7 +19420,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19561,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19608,7 +19608,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19658,7 +19658,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R363">
         <v>15</v>
@@ -19708,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19755,7 +19755,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19802,7 +19802,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19849,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19896,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R370">
         <v>21</v>
@@ -20043,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20090,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20187,7 +20187,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R374">
         <v>22</v>
@@ -20237,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20284,7 +20284,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20378,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20475,7 +20475,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R380">
         <v>14</v>
@@ -20528,7 +20528,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R381">
         <v>8</v>
@@ -20578,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20625,7 +20625,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20675,7 +20675,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20725,7 +20725,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R385">
         <v>20</v>
@@ -20775,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20822,7 +20822,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20869,7 +20869,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20916,7 +20916,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20966,7 +20966,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R390">
         <v>4</v>
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21063,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21110,7 +21110,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21157,7 +21157,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21207,7 +21207,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R395">
         <v>16</v>
@@ -21260,7 +21260,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21307,7 +21307,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21354,7 +21354,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21448,7 +21448,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21495,7 +21495,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21545,7 +21545,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R402">
         <v>10</v>
@@ -21598,7 +21598,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R403">
         <v>6</v>
@@ -21651,7 +21651,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21698,7 +21698,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21745,7 +21745,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21792,7 +21792,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21839,7 +21839,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21936,7 +21936,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R410">
         <v>14</v>
@@ -21989,7 +21989,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R411">
         <v>19</v>
@@ -22039,7 +22039,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22086,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22136,7 +22136,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R414">
         <v>1</v>
@@ -22189,7 +22189,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R415">
         <v>7</v>
@@ -22239,7 +22239,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22289,7 +22289,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R417">
         <v>7</v>
@@ -22342,7 +22342,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R418">
         <v>24</v>
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22442,7 +22442,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22492,7 +22492,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R421">
         <v>15</v>
@@ -22545,7 +22545,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R422">
         <v>24</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22645,7 +22645,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R424">
         <v>15</v>
@@ -22695,7 +22695,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22745,7 +22745,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R426">
         <v>0</v>
@@ -22789,10 +22789,10 @@
         <v>1</v>
       </c>
       <c r="P427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q427">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22839,7 +22839,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22933,7 +22933,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23027,7 +23027,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23115,10 +23115,10 @@
         <v>1</v>
       </c>
       <c r="P434" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q434">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23165,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23215,7 +23215,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23265,7 +23265,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R437">
         <v>31</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23368,7 +23368,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R439">
         <v>11</v>
@@ -23421,7 +23421,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R440">
         <v>18</v>
@@ -23474,7 +23474,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23568,7 +23568,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23618,7 +23618,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R444">
         <v>8</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23718,7 +23718,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R446">
         <v>5</v>
@@ -23771,7 +23771,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23821,7 +23821,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R448">
         <v>6</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23921,7 +23921,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R450">
         <v>14</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24021,7 +24021,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R452">
         <v>26</v>
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24118,7 +24118,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24165,7 +24165,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24309,7 +24309,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R458">
         <v>6</v>
@@ -24362,7 +24362,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24412,7 +24412,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R460">
         <v>19</v>
@@ -24462,7 +24462,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24556,7 +24556,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R463">
         <v>20</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24659,7 +24659,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R465">
         <v>2</v>
@@ -24712,7 +24712,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R466">
         <v>5</v>
@@ -24765,7 +24765,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24859,7 +24859,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25000,7 +25000,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25050,7 +25050,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R473">
         <v>20</v>
@@ -25100,7 +25100,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25150,7 +25150,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R475">
         <v>15</v>
@@ -25200,7 +25200,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25297,7 +25297,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R478">
         <v>0</v>
@@ -25350,7 +25350,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R479">
         <v>12</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25500,7 +25500,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25547,7 +25547,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25641,7 +25641,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25738,7 +25738,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R487">
         <v>16</v>
@@ -25791,7 +25791,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R488">
         <v>18</v>
@@ -25841,7 +25841,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25891,7 +25891,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R490">
         <v>14</v>
@@ -25941,7 +25941,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26085,7 +26085,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R494">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R495">
         <v>7</v>
@@ -26191,7 +26191,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R496">
         <v>10</v>
@@ -26244,7 +26244,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R497">
         <v>15</v>
@@ -26297,7 +26297,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R498">
         <v>7</v>
@@ -26347,7 +26347,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26397,7 +26397,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R500">
         <v>7</v>
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26541,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26588,7 +26588,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26635,7 +26635,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26682,7 +26682,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26729,7 +26729,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26776,7 +26776,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26823,7 +26823,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26870,7 +26870,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26967,7 +26967,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R512">
         <v>13</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27067,7 +27067,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R514">
         <v>4</v>
@@ -27117,7 +27117,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27167,7 +27167,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R516">
         <v>21</v>
@@ -27220,7 +27220,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27267,7 +27267,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27314,7 +27314,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27361,7 +27361,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27411,7 +27411,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R521">
         <v>5</v>
@@ -27464,7 +27464,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R522">
         <v>17</v>
@@ -27517,7 +27517,7 @@
         <v>1</v>
       </c>
       <c r="Q523">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R523">
         <v>9</v>
@@ -27570,7 +27570,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27620,7 +27620,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R525">
         <v>10</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27720,7 +27720,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R527">
         <v>11</v>
@@ -27770,7 +27770,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27814,7 +27814,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27908,7 +27908,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27958,7 +27958,7 @@
         <v>1</v>
       </c>
       <c r="Q532">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R532">
         <v>23</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28199,7 +28199,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28246,7 +28246,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28343,7 +28343,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28437,7 +28437,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -28484,7 +28484,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28531,7 +28531,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28625,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28672,7 +28672,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28719,7 +28719,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -28769,7 +28769,7 @@
         <v>1</v>
       </c>
       <c r="Q549">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R549">
         <v>39</v>
@@ -28822,7 +28822,7 @@
         <v>1</v>
       </c>
       <c r="Q550">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R550">
         <v>17</v>
@@ -28875,7 +28875,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28925,7 +28925,7 @@
         <v>1</v>
       </c>
       <c r="Q552">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R552">
         <v>16</v>
@@ -28978,7 +28978,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -29028,7 +29028,7 @@
         <v>1</v>
       </c>
       <c r="Q554">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R554">
         <v>10</v>
@@ -29078,7 +29078,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -29128,7 +29128,7 @@
         <v>1</v>
       </c>
       <c r="Q556">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R556">
         <v>7</v>
@@ -29178,7 +29178,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29225,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="Q558">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="559" spans="1:18">
@@ -29272,7 +29272,7 @@
         <v>0</v>
       </c>
       <c r="Q559">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="560" spans="1:18">
@@ -29319,7 +29319,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="Q561">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -29413,7 +29413,7 @@
         <v>0</v>
       </c>
       <c r="Q562">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="Q563">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="564" spans="1:18">
@@ -29510,7 +29510,7 @@
         <v>1</v>
       </c>
       <c r="Q564">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R564">
         <v>18</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="Q565">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="566" spans="1:18">
@@ -29607,7 +29607,7 @@
         <v>0</v>
       </c>
       <c r="Q566">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -29657,7 +29657,7 @@
         <v>1</v>
       </c>
       <c r="Q567">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R567">
         <v>6</v>
@@ -29707,7 +29707,7 @@
         <v>1</v>
       </c>
       <c r="Q568">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="R568">
         <v>23</v>
@@ -29760,7 +29760,7 @@
         <v>1</v>
       </c>
       <c r="Q569">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="R569">
         <v>4</v>
@@ -29816,7 +29816,7 @@
         <v>1</v>
       </c>
       <c r="Q570">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="R570">
         <v>4</v>
@@ -29860,10 +29860,10 @@
         <v>1</v>
       </c>
       <c r="P571" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q571">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="572" spans="1:18">
@@ -29904,7 +29904,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
